--- a/data/trans_dic/P15B_3_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P15B_3_R-Estudios-trans_dic.xlsx
@@ -708,19 +708,19 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1331708948891942</v>
+        <v>0.125615588229612</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1501296117390527</v>
+        <v>0.1477341204537218</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.04284719812877893</v>
+        <v>0.04185176924456828</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.05094170062806683</v>
+        <v>0.04736040525868906</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.020001951506936</v>
+        <v>0.02048766467310702</v>
       </c>
       <c r="H5" s="5" t="n">
         <v>0</v>
@@ -729,19 +729,19 @@
         <v>0</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.0118008712253703</v>
+        <v>0.01129467788574915</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.07451705681715791</v>
+        <v>0.08464671364274423</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.06629234518365797</v>
+        <v>0.06798659658632736</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.02612143097850855</v>
+        <v>0.02471522018076724</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.02951666314888074</v>
+        <v>0.03201347378298358</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4999778401157745</v>
+        <v>0.4925147321233684</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3599994297533378</v>
+        <v>0.3472569900725154</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2388919989959516</v>
+        <v>0.220922831244294</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2840025016675474</v>
+        <v>0.2919377243103077</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1774044301136744</v>
+        <v>0.1757747578542077</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.05973644156460677</v>
+        <v>0.07774894587075407</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.08454389693249924</v>
+        <v>0.09804276469686757</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.08014838942880659</v>
+        <v>0.07123291709323558</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2498172819692126</v>
+        <v>0.2442684473605037</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1612884866390647</v>
+        <v>0.1582994249430521</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1178963431037853</v>
+        <v>0.110195428850822</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1148282784081882</v>
+        <v>0.1185808912627643</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.1761032591131011</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.2887171525702941</v>
+        <v>0.288717152570294</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.1388062674632573</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2689174544755995</v>
+        <v>0.2631609854132096</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1565405968172573</v>
+        <v>0.1559134768768396</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1160252833049121</v>
+        <v>0.1151180517488158</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2128806650849279</v>
+        <v>0.2046440644680339</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.05301242526485257</v>
+        <v>0.05344590672798126</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.0291117131397822</v>
+        <v>0.02820086082629243</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.04671173690052844</v>
+        <v>0.04685641188767065</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.06231358458798823</v>
+        <v>0.06420186066727332</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2191828574966917</v>
+        <v>0.2205410498720499</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1169241068156256</v>
+        <v>0.1162985456196404</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.09957331142448837</v>
+        <v>0.09770659613392847</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1556289086322667</v>
+        <v>0.1581516918684717</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4956784578566089</v>
+        <v>0.4835908797929197</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2757593281480057</v>
+        <v>0.2767280747639746</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2629668308379164</v>
+        <v>0.2563439147141226</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3812843748960426</v>
+        <v>0.3902574323831368</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2725807414456606</v>
+        <v>0.2774021543666874</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1254155892452332</v>
+        <v>0.1239725410450419</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1791982100336637</v>
+        <v>0.1763254512401458</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1807064749528089</v>
+        <v>0.1809055990690333</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3978949594846378</v>
+        <v>0.3956773532795448</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2023799225342632</v>
+        <v>0.1994077972492512</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.199560359748898</v>
+        <v>0.2063140224431538</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2764246990381642</v>
+        <v>0.2788794792476044</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.1060954104260374</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.05724449072978857</v>
+        <v>0.05724449072978858</v>
       </c>
     </row>
     <row r="11">
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.07322112479992496</v>
+        <v>0.07376655097423608</v>
       </c>
       <c r="E11" s="5" t="n">
         <v>0</v>
@@ -998,22 +998,22 @@
         <v>0</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.03482754400759382</v>
+        <v>0.0335681970500867</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.03096598434823206</v>
+        <v>0.02975524720419101</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.06237154543820476</v>
+        <v>0.06851147816073472</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.04341650454336737</v>
+        <v>0.04018479181895607</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.01724689740618983</v>
+        <v>0.01379623745061922</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4055662376124655</v>
+        <v>0.4589029920359561</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3691913592226214</v>
+        <v>0.384766025995847</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2837723703567336</v>
+        <v>0.2910397854105345</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.247848829970886</v>
+        <v>0.2256798696260682</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.435038704070456</v>
+        <v>0.4995231485982172</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3460976864541574</v>
+        <v>0.3469242868481945</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.312301134630423</v>
+        <v>0.2899508512474819</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1243067524141113</v>
+        <v>0.1179450889296645</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3315446652056149</v>
+        <v>0.3276142765017424</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3057781247295849</v>
+        <v>0.2988959503031658</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2072507218430554</v>
+        <v>0.2228582884354406</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1497963648005329</v>
+        <v>0.1507187089090996</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2385407911320321</v>
+        <v>0.2441374983923758</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1735998943428589</v>
+        <v>0.1708533086022672</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.101733040466305</v>
+        <v>0.1006995875469087</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1670146677469638</v>
+        <v>0.1613588299829716</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.05327803248584367</v>
+        <v>0.05011854096064003</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.028392660922409</v>
+        <v>0.02638448427848218</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.04266470319071783</v>
+        <v>0.0378881539605784</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.04508685990846138</v>
+        <v>0.04403009362616913</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1701465577093595</v>
+        <v>0.1709232208426756</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1125550235611832</v>
+        <v>0.1114562217363788</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.08037435893608232</v>
+        <v>0.07979241202293105</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.11090542980672</v>
+        <v>0.1111856885066985</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4135438132681385</v>
+        <v>0.4167038430676636</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2678394145816095</v>
+        <v>0.2693114175118934</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2067034930488485</v>
+        <v>0.2003560544529852</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3090101552934864</v>
+        <v>0.2899362895448984</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1807475109307728</v>
+        <v>0.1749567541905621</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.095152351366646</v>
+        <v>0.09086444810774015</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1185212447961957</v>
+        <v>0.1178279159451271</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1119441349867241</v>
+        <v>0.1089801053467658</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2879433517052797</v>
+        <v>0.2881289615526597</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1762728939343496</v>
+        <v>0.1727023136167172</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1439498918733598</v>
+        <v>0.1457662050405424</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1868013154215306</v>
+        <v>0.1852576924771424</v>
       </c>
     </row>
     <row r="16">
@@ -1463,19 +1463,19 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>3352</v>
+        <v>3162</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>11521</v>
+        <v>11337</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1924</v>
+        <v>1879</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1928</v>
+        <v>1792</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>911</v>
+        <v>933</v>
       </c>
       <c r="H6" s="6" t="n">
         <v>0</v>
@@ -1484,19 +1484,19 @@
         <v>0</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>997</v>
+        <v>955</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>5269</v>
+        <v>5985</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>12574</v>
+        <v>12895</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>3121</v>
+        <v>2953</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>3612</v>
+        <v>3917</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>12586</v>
+        <v>12399</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>27626</v>
+        <v>26649</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>10726</v>
+        <v>9919</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>10748</v>
+        <v>11048</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>8077</v>
+        <v>8003</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>6746</v>
+        <v>8781</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>6307</v>
+        <v>7314</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>6774</v>
+        <v>6021</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>17663</v>
+        <v>17270</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>30593</v>
+        <v>30026</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>14088</v>
+        <v>13168</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>14051</v>
+        <v>14510</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>21111</v>
+        <v>20659</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>28691</v>
+        <v>28576</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>13937</v>
+        <v>13828</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>29613</v>
+        <v>28467</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>1858</v>
+        <v>1873</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>3310</v>
+        <v>3206</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>4010</v>
+        <v>4022</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>6918</v>
+        <v>7128</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>24887</v>
+        <v>25042</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>34724</v>
+        <v>34538</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>20509</v>
+        <v>20124</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>38928</v>
+        <v>39559</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>38912</v>
+        <v>37963</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>50542</v>
+        <v>50720</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>31588</v>
+        <v>30793</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>53039</v>
+        <v>54287</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>9552</v>
+        <v>9721</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>14259</v>
+        <v>14095</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>15383</v>
+        <v>15137</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>20063</v>
+        <v>20085</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>45179</v>
+        <v>44928</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>60102</v>
+        <v>59220</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>41103</v>
+        <v>42494</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>69143</v>
+        <v>69757</v>
       </c>
     </row>
     <row r="12">
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1908</v>
+        <v>1922</v>
       </c>
       <c r="E14" s="6" t="n">
         <v>0</v>
@@ -1841,22 +1841,22 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1080</v>
+        <v>1041</v>
       </c>
       <c r="J14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1011</v>
+        <v>971</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>3420</v>
+        <v>3756</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>2683</v>
+        <v>2484</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>1326</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>7868</v>
+        <v>8903</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>9619</v>
+        <v>10025</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>8739</v>
+        <v>8963</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>10328</v>
+        <v>9404</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>5758</v>
+        <v>6612</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>9959</v>
+        <v>9983</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>9684</v>
+        <v>8991</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>4380</v>
+        <v>4156</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>10820</v>
+        <v>10692</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>16766</v>
+        <v>16388</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>12809</v>
+        <v>13773</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>11521</v>
+        <v>11591</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>29359</v>
+        <v>30048</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>49663</v>
+        <v>48877</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>19921</v>
+        <v>19718</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>36512</v>
+        <v>35276</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>4998</v>
+        <v>4701</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>7252</v>
+        <v>6739</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>8168</v>
+        <v>7254</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>10406</v>
+        <v>10162</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>36902</v>
+        <v>37070</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>60947</v>
+        <v>60352</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>31126</v>
+        <v>30901</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>49841</v>
+        <v>49967</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>50898</v>
+        <v>51287</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>76623</v>
+        <v>77044</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>40476</v>
+        <v>39233</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>67555</v>
+        <v>63385</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>16955</v>
+        <v>16412</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>24302</v>
+        <v>23207</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>22691</v>
+        <v>22559</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>25835</v>
+        <v>25151</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>62450</v>
+        <v>62490</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>95449</v>
+        <v>93515</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>55747</v>
+        <v>56451</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>83949</v>
+        <v>83256</v>
       </c>
     </row>
     <row r="20">
